--- a/www/synergy_scores.xlsx
+++ b/www/synergy_scores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Drug.combination</t>
   </si>
@@ -32,7 +32,19 @@
     <t xml:space="preserve">ZIP</t>
   </si>
   <si>
+    <t xml:space="preserve">Ipatasertib - Dinaciclib</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpelisib - NVP-LGK974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trametinib - BMS-754807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpelisib - AZD1775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navitoclax - Alvocidib</t>
   </si>
 </sst>
 </file>
@@ -80,8 +92,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D3" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D7" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Drug.combination"/>
     <tableColumn id="2" name="Synergy.score"/>
@@ -396,10 +408,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-15.774</v>
+        <v>-15.866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.039</v>
+        <v>-0.045</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -410,12 +422,68 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-15.818</v>
+        <v>-19.312</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.347</v>
+        <v>-0.631</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-16.62</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.699</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-23.572</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.881</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-20.008</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.419</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-15.442</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.913</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
